--- a/new_batch_incomplete_deviation.xlsx
+++ b/new_batch_incomplete_deviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuang\OneDrive - Sutro Biopharma\Documents 1\Python_Scripts\Batch_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C4F77-EE1D-488C-9D7D-B36FC7A2576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60039BDE-6859-45E1-B960-19900A38A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="864" windowWidth="22896" windowHeight="12096" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
+    <workbookView xWindow="3195" yWindow="3555" windowWidth="28020" windowHeight="14520" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>glucose_g_L</t>
   </si>
   <si>
-    <t>mg_mM</t>
-  </si>
-  <si>
     <t>nh3_mM</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>S1_syn_019</t>
+  </si>
+  <si>
+    <t>magnesium_mM</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,18 +497,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>8</v>

--- a/new_batch_incomplete_deviation.xlsx
+++ b/new_batch_incomplete_deviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuang\OneDrive - Sutro Biopharma\Documents 1\Python_Scripts\Batch_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60039BDE-6859-45E1-B960-19900A38A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F33F84-7DBF-4216-A4FA-CC286B557AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3555" windowWidth="28020" windowHeight="14520" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
+    <workbookView xWindow="-22410" yWindow="2370" windowWidth="21600" windowHeight="11235" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>S1_syn_019</t>
   </si>
   <si>
-    <t>magnesium_mM</t>
+    <t>mg_mM</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
